--- a/formshare/tests/resources/forms/form05.xlsx
+++ b/formshare/tests/resources/forms/form05.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -105,23 +105,7 @@
     <t xml:space="preserve">GPS</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">select_one </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">yesno</t>
-    </r>
+    <t xml:space="preserve">select_one yesno</t>
   </si>
   <si>
     <t xml:space="preserve">yesno</t>
@@ -194,6 +178,9 @@
   </si>
   <si>
     <t xml:space="preserve">form_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">version</t>
   </si>
   <si>
     <t xml:space="preserve">Just a test</t>
@@ -209,7 +196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -230,11 +217,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -305,38 +287,38 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13:C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.69"/>
@@ -350,10 +332,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="15" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,8 +496,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -526,7 +506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -535,16 +515,15 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="1" sqref="A13:C13 A14"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="4" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -694,8 +673,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -704,22 +683,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A13:C13 B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="3" style="0" width="9.59"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -729,19 +707,25 @@
       <c r="B1" s="0" t="s">
         <v>51</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
